--- a/2023-fall/2023-09-19/data/to-excel-test.xlsx
+++ b/2023-fall/2023-09-19/data/to-excel-test.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,304 +436,167 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>ModelNumber</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Submodel</t>
+          <t>B</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Type</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Xval</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Yval</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>foo</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>one</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>foo</t>
-        </is>
+      <c r="C2" t="n">
+        <v>0.9051771989010865</v>
       </c>
       <c r="D2" t="n">
-        <v>0.04600316552473645</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.000862591776915677</v>
+        <v>0.434888468122361</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>bar</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>one</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>foo</t>
-        </is>
+      <c r="C3" t="n">
+        <v>-0.8701189885942266</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.8307997458881027</v>
-      </c>
-      <c r="E3" t="n">
-        <v>-1.230381367611624</v>
+        <v>0.6293137278346634</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>foo</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>two</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>foo</t>
-        </is>
+      <c r="C4" t="n">
+        <v>-0.7453924639721227</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2807919043048893</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.8076876648481099</v>
+        <v>1.819753577964779</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>bar</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>three</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>bar</t>
-        </is>
+      <c r="C5" t="n">
+        <v>0.2499865046023107</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6416931413486888</v>
-      </c>
-      <c r="E5" t="n">
-        <v>-1.628349447752784</v>
+        <v>-0.1641774367263138</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>one</t>
+          <t>foo</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>bar</t>
-        </is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.5129929587523323</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01543860313242438</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1.034236213128253</v>
+        <v>-0.5004040583740187</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>one</t>
+          <t>bar</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>bar</t>
-        </is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.5844475776978406</v>
       </c>
       <c r="D7" t="n">
-        <v>1.420031068698423</v>
-      </c>
-      <c r="E7" t="n">
-        <v>-0.1683106951378858</v>
+        <v>-0.05605143848574967</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>two</t>
+          <t>foo</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>foo</t>
-        </is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>-0.2239518139901829</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.277734794503368</v>
-      </c>
-      <c r="E8" t="n">
-        <v>-0.4671266244438251</v>
+        <v>-0.6805531142923841</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>foo</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>three</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>foo</t>
-        </is>
+      <c r="C9" t="n">
+        <v>0.2687479543652444</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.23128316244979</v>
-      </c>
-      <c r="E9" t="n">
-        <v>-0.2462525036124398</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>one</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>foo</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>-0.06080958744934446</v>
-      </c>
-      <c r="E10" t="n">
-        <v>-0.6305647022186078</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>one</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>bar</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>-1.810137563835458</v>
-      </c>
-      <c r="E11" t="n">
-        <v>-0.803721654985791</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>two</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>bar</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>-1.029610869716679</v>
-      </c>
-      <c r="E12" t="n">
-        <v>-2.399979375625337</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>three</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>bar</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>0.2796688167690843</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1.123752232799862</v>
+        <v>-0.7911336137230187</v>
       </c>
     </row>
   </sheetData>

--- a/2023-fall/2023-09-19/data/to-excel-test.xlsx
+++ b/2023-fall/2023-09-19/data/to-excel-test.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,168 +436,188 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Ann</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Bob</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Charly</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Don</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>foo</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>one</t>
-        </is>
+      <c r="A2" t="n">
+        <v>-1.178949125852051</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.05948412071561143</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9051771989010865</v>
+        <v>-0.3470522914001826</v>
       </c>
       <c r="D2" t="n">
-        <v>0.434888468122361</v>
+        <v>-1.892809647093321</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>bar</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>one</t>
-        </is>
+      <c r="A3" t="n">
+        <v>-1.803127900742684</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-1.765048597784182</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.8701189885942266</v>
+        <v>1.055183584277454</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6293137278346634</v>
+        <v>0.1675723592966207</v>
+      </c>
+      <c r="E3" t="n">
+        <v>5</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>foo</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>two</t>
-        </is>
+      <c r="A4" t="n">
+        <v>-0.04019973551623236</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.02018757454033796</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.7453924639721227</v>
+        <v>0.4693345458435244</v>
       </c>
       <c r="D4" t="n">
-        <v>1.819753577964779</v>
+        <v>-1.191587917831027</v>
+      </c>
+      <c r="E4" t="n">
+        <v>5</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>bar</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>three</t>
-        </is>
+      <c r="A5" t="n">
+        <v>-0.7969876045549702</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-1.684015364476585</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2499865046023107</v>
+        <v>0.1330125044241141</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.1641774367263138</v>
+        <v>-1.318335779941594</v>
+      </c>
+      <c r="E5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>foo</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>two</t>
-        </is>
+      <c r="A6" t="n">
+        <v>-1.44583618799077</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-1.705771733792638</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5129929587523323</v>
+        <v>-0.5575397907980911</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.5004040583740187</v>
+        <v>1.704078833375946</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>bar</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>two</t>
-        </is>
+      <c r="A7" t="n">
+        <v>0.9788545622061792</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.1037467022417866</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5844475776978406</v>
+        <v>-1.134703624911773</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.05605143848574967</v>
+        <v>-0.6430992289455687</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>foo</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>one</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>-0.2239518139901829</v>
-      </c>
-      <c r="D8" t="n">
-        <v>-0.6805531142923841</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>foo</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>three</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2687479543652444</v>
-      </c>
-      <c r="D9" t="n">
-        <v>-0.7911336137230187</v>
-      </c>
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>3</v>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
